--- a/ExcelTool/bin/Release/Test.xlsx
+++ b/ExcelTool/bin/Release/Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -130,6 +130,22 @@
   </si>
   <si>
     <t>(物理,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector3[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>possss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,1.5,1],[2,3.5,4]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:J5"/>
+  <dimension ref="C1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -481,9 +497,10 @@
     <col min="8" max="8" width="27.5" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
     <col min="10" max="10" width="17.25" customWidth="1"/>
+    <col min="11" max="11" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
         <v>8</v>
       </c>
@@ -497,7 +514,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
         <v>2</v>
       </c>
@@ -519,8 +536,11 @@
       <c r="J2" t="s">
         <v>14</v>
       </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -543,10 +563,13 @@
         <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
         <v>9</v>
       </c>
@@ -568,8 +591,11 @@
       <c r="J4" t="s">
         <v>15</v>
       </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>10</v>
       </c>
@@ -590,6 +616,9 @@
       </c>
       <c r="J5" t="s">
         <v>15</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
